--- a/result/FinalResult.xlsx
+++ b/result/FinalResult.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MalwareParser\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2018\MalwareParser\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF53E070-BB61-42F3-9842-F3956D5DD9AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC541F-A255-45ED-B8DD-D4F4DEF13534}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{CBE23980-1FF3-45A1-8BB9-29F4BBABBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="3" xr2:uid="{CBE23980-1FF3-45A1-8BB9-29F4BBABBC95}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018" sheetId="2" r:id="rId1"/>
+    <sheet name="2017" sheetId="1" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId3"/>
+    <sheet name="2015" sheetId="4" r:id="rId4"/>
+    <sheet name="2014" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="43">
   <si>
     <t>oracle</t>
   </si>
@@ -148,6 +152,12 @@
   </si>
   <si>
     <t>Keyword</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
@@ -498,235 +508,1526 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA1CF2-BE1B-4C34-8AD2-DE4EAEE537EC}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8A365-071E-4679-86A5-A7CE8FDCB91A}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD2CA7-7F30-488B-8E54-5F2CA70D697E}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7402A537-7229-458F-959E-9C69C3F89CF9}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1">
-        <v>2018</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2016</v>
-      </c>
-      <c r="E1">
-        <v>2015</v>
-      </c>
-      <c r="F1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B06241-76DE-4C39-BAB8-64152090AE5B}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>

--- a/result/FinalResult.xlsx
+++ b/result/FinalResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring 2018\MalwareParser\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MalwareParser\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DC541F-A255-45ED-B8DD-D4F4DEF13534}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA10D170-0233-4AC5-B04B-7C2189FB97EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" activeTab="3" xr2:uid="{CBE23980-1FF3-45A1-8BB9-29F4BBABBC95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="4" xr2:uid="{CBE23980-1FF3-45A1-8BB9-29F4BBABBC95}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="2" r:id="rId1"/>
@@ -212,6 +212,5766 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2018'!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>remote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>windows</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>unauthorised</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>microsoft</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>memory</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unauthenticated</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>xss</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cisco</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scripting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>injection</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>plugin</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>critical</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>embedded</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ioctl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>overflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bsod</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>cross-site</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>disclosure</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>kernel</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>vm</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>elevation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bypass</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sandboxed</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>acrobat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>root</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>adobe</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>web-based</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B38-47E8-8416-9C0E9D7EAD5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="502643840"/>
+        <c:axId val="502640888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="502643840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502640888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="502640888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="502643840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2017'!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>remote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>windows</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>unauthorised</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>microsoft</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>memory</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unauthenticated</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>xss</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cisco</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scripting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>injection</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>plugin</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>critical</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>embedded</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ioctl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>overflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bsod</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>cross-site</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>disclosure</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>kernel</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>vm</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>elevation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bypass</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sandboxed</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>acrobat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>root</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>adobe</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>web-based</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3314</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1224</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>688</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DFA-42F1-9971-1901E227F96C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="560078888"/>
+        <c:axId val="560081184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560078888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560081184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560081184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="560078888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2016'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2016'!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>remote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>windows</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>unauthorised</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>microsoft</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>memory</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unauthenticated</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>xss</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cisco</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scripting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>injection</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>plugin</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>critical</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>embedded</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ioctl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>overflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bsod</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>cross-site</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>disclosure</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>kernel</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>vm</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>elevation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bypass</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sandboxed</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>acrobat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>root</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>adobe</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>web-based</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2016'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1135</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>532</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F383-4FFB-9068-A4ACA079AF79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="498321544"/>
+        <c:axId val="498316952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="498321544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="498316952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="498316952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="498321544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2015'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2015'!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>remote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>windows</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>unauthorised</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>microsoft</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>memory</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unauthenticated</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>xss</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cisco</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scripting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>injection</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>plugin</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>critical</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>embedded</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ioctl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>overflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bsod</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>cross-site</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>disclosure</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>kernel</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>vm</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>elevation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bypass</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sandboxed</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>acrobat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>root</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>adobe</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>web-based</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2015'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>582</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4349-4349-B716-66B429A3318E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="493172304"/>
+        <c:axId val="493173288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="493172304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="493173288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="493173288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="493172304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2014'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2014'!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>android</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>oracle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>remote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>windows</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>server</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>java</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>denial</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>unauthorised</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>microsoft</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>network</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>memory</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>unauthenticated</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>xss</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>cisco</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>scripting</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>injection</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>buffer</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>sql</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>plugin</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>critical</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>embedded</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ioctl</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>overflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>wordpress</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>bsod</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>cross-site</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>dos</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>disclosure</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>kernel</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>vm</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>elevation</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>bypass</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>sandboxed</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>php</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>acrobat</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>infrastructure</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>root</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>adobe</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>web-based</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>linux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2014'!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1629</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6605-4F24-BAE4-6438FEC868AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="497840176"/>
+        <c:axId val="497840504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="497840176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497840504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="497840504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="497840176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D5B4883-6940-4250-A4C6-6E6EC37B71B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AF272E-1419-44AC-A7F3-48236CF75FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>80009</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C40FB3-50F5-41E6-8F3F-56A175DA6720}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF09302-BB7A-4938-BDFB-E4D5B40248A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0387D42-FC3A-4F13-977D-80AACB8AC0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -511,17 +6271,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCA1CF2-BE1B-4C34-8AD2-DE4EAEE537EC}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -529,7 +6289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -537,7 +6297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,7 +6305,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -553,7 +6313,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -561,7 +6321,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -569,7 +6329,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -577,7 +6337,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -585,7 +6345,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -593,7 +6353,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -601,7 +6361,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -609,7 +6369,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -617,7 +6377,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -625,7 +6385,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -633,7 +6393,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -641,7 +6401,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -649,7 +6409,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -657,7 +6417,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -665,7 +6425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -673,7 +6433,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -681,7 +6441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -689,7 +6449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -697,7 +6457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -705,7 +6465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -713,7 +6473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -721,7 +6481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -729,7 +6489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -737,7 +6497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -745,7 +6505,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -753,7 +6513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -761,7 +6521,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -769,7 +6529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -777,7 +6537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -785,7 +6545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -793,7 +6553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -801,7 +6561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -809,7 +6569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -817,7 +6577,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -825,7 +6585,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -833,7 +6593,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -841,7 +6601,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -849,7 +6609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -859,6 +6619,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -866,17 +6627,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA8A365-071E-4679-86A5-A7CE8FDCB91A}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -884,7 +6645,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -892,7 +6653,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -900,7 +6661,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -908,7 +6669,7 @@
         <v>4233</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -916,7 +6677,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -924,7 +6685,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -932,7 +6693,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -940,7 +6701,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -948,7 +6709,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -956,7 +6717,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -964,7 +6725,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -972,7 +6733,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -980,7 +6741,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -988,7 +6749,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -996,7 +6757,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +6765,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1012,7 +6773,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +6781,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1028,7 +6789,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1036,7 +6797,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +6805,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +6813,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +6821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1068,7 +6829,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +6837,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1084,7 +6845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1092,7 +6853,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +6861,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +6869,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +6877,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1124,7 +6885,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +6893,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1140,7 +6901,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1148,7 +6909,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1156,7 +6917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1164,7 +6925,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1172,7 +6933,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1180,7 +6941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1188,7 +6949,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1196,7 +6957,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1204,7 +6965,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1214,6 +6975,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1221,17 +6983,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFD2CA7-7F30-488B-8E54-5F2CA70D697E}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.41796875" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1239,7 +7001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +7009,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +7017,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1263,7 +7025,7 @@
         <v>4745</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +7033,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +7041,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1287,7 +7049,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +7057,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1303,7 +7065,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +7073,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1319,7 +7081,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1327,7 +7089,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1335,7 +7097,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1343,7 +7105,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1351,7 +7113,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1359,7 +7121,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +7129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +7137,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +7145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +7153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +7161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1407,7 +7169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1415,7 +7177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +7185,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1431,7 +7193,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1439,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1447,7 +7209,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1455,7 +7217,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1463,7 +7225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +7233,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1479,7 +7241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +7249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +7257,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +7265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +7273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +7281,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1527,7 +7289,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +7297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +7305,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1559,7 +7321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1569,6 +7331,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1576,17 +7339,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7402A537-7229-458F-959E-9C69C3F89CF9}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="A1:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1594,213 +7357,337 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>39</v>
       </c>
+      <c r="B42">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1808,17 +7695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B06241-76DE-4C39-BAB8-64152090AE5B}">
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1826,212 +7713,336 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>39</v>
       </c>
+      <c r="B42">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>